--- a/CashFlow/MTD_cashflow.xlsx
+++ b/CashFlow/MTD_cashflow.xlsx
@@ -74,8 +74,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="27.500000000000004"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.3"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="14.3"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="14.3"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1182000000.0</v>
+        <v>-3836000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1158000000.0</v>
+        <v>1470000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>865354000.0</v>
+        <v>-13836000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>561598000.0</v>
+        <v>-12185000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>256506000.0</v>
+        <v>-4603000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-12465000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-17803000.0</v>
+        <v>648000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-7436000.0</v>
+        <v>658000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>32602000.0</v>
+        <v>538300000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>50342000.0</v>
+        <v>386954000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>36386000.0</v>
+        <v>188948000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>9101000.0</v>
